--- a/Flex_SGM/Templates/TemplateDock.xlsx
+++ b/Flex_SGM/Templates/TemplateDock.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20364"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolivarez\source\repos\Bitacora\Flex_SGM\Evidence\Quality\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA3B042-2181-4AA0-B87D-2B898C0036D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE" sheetId="3" r:id="rId1"/>
@@ -24,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'5 W´s'!$A$1:$L$64</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>MODELO:</t>
   </si>
@@ -286,15 +280,36 @@
   <si>
     <t>{{a30d}}</t>
   </si>
+  <si>
+    <t>{{a1why}}</t>
+  </si>
+  <si>
+    <t>{{a2why}}</t>
+  </si>
+  <si>
+    <t>{{a3why}}</t>
+  </si>
+  <si>
+    <t>{{a4why}}</t>
+  </si>
+  <si>
+    <t>{{a5why}}</t>
+  </si>
+  <si>
+    <t>{{acausa}}</t>
+  </si>
+  <si>
+    <t>{{aaccion}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-80A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -453,6 +468,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -498,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -889,6 +910,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -898,7 +937,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1059,14 +1098,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1077,9 +1222,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,96 +1231,201 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1194,138 +1441,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,89 +1477,38 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 5" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1476,7 +1543,7 @@
         <xdr:cNvPr id="2209" name="7 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1619,7 @@
         <xdr:cNvPr id="5" name="4 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1687,7 @@
         <xdr:cNvPr id="6" name="5 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1755,7 @@
         <xdr:cNvPr id="13" name="12 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1828,7 @@
         <xdr:cNvPr id="11" name="10 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1896,7 @@
         <xdr:cNvPr id="12" name="11 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1964,7 @@
         <xdr:cNvPr id="14" name="13 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +2032,7 @@
         <xdr:cNvPr id="19" name="18 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2100,7 @@
         <xdr:cNvPr id="20" name="19 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2168,7 @@
         <xdr:cNvPr id="21" name="20 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2236,7 @@
         <xdr:cNvPr id="22" name="21 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2309,7 @@
         <xdr:cNvPr id="4302" name="Flecha curvada hacia abajo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CE100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000CE100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2362,7 @@
         <xdr:cNvPr id="4303" name="Flecha curvada hacia abajo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CF100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000CF100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2415,7 @@
         <xdr:cNvPr id="4304" name="Flecha curvada hacia abajo 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D0100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000D0100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2468,7 @@
         <xdr:cNvPr id="4305" name="Flecha abajo 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D1100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000D1100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2520,7 @@
         <xdr:cNvPr id="4306" name="Flecha curvada hacia abajo 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D2100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000D2100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2578,7 @@
         <xdr:cNvPr id="2" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,17 +3004,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:H33"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -2965,7 +3032,7 @@
     <col min="14" max="14" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -2981,46 +3048,46 @@
       <c r="M1" s="14"/>
       <c r="N1" s="15"/>
     </row>
-    <row r="2" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A2" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87"/>
-    </row>
-    <row r="3" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="182" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
+    </row>
+    <row r="3" spans="1:15" ht="36" customHeight="1">
+      <c r="A3" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="184"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="44.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="44.25">
       <c r="A4" s="60"/>
       <c r="B4" s="68"/>
       <c r="C4" s="5"/>
@@ -3036,7 +3103,7 @@
       <c r="M4" s="62"/>
       <c r="N4" s="57"/>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="2" customFormat="1">
       <c r="A5" s="43"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3052,27 +3119,27 @@
       <c r="M5" s="5"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="A6" s="43"/>
       <c r="B6" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="185" t="s">
+      <c r="D6" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="A7" s="43"/>
       <c r="B7" s="45" t="s">
         <v>4</v>
@@ -3080,39 +3147,39 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="185" t="s">
+      <c r="F7" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="A8" s="43"/>
       <c r="B8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="43"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3130,36 +3197,36 @@
       <c r="M9" s="5"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="43"/>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="186" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="188" t="s">
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="189"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="55"/>
-      <c r="K10" s="186" t="s">
+      <c r="K10" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="186"/>
-      <c r="M10" s="187"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="109"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="43"/>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="52" t="s">
         <v>67</v>
       </c>
@@ -3174,65 +3241,65 @@
       <c r="M11" s="53"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="43"/>
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="195"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="191"/>
-      <c r="M12" s="192"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="83"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="43"/>
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="191"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="191"/>
-      <c r="F13" s="191" t="s">
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="193"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="191" t="s">
+      <c r="L13" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="192"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="176.25" customHeight="1" thickBot="1">
       <c r="A14" s="43"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="198"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="43"/>
       <c r="B15" s="5" t="s">
         <v>71</v>
@@ -3250,7 +3317,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A16" s="43"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3266,73 +3333,73 @@
       <c r="M16" s="5"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="43"/>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="94"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="100"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A18" s="43"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="97"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="103"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="43"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="97"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="103"/>
       <c r="N19" s="21"/>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A20" s="43"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="97"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
       <c r="N20" s="21"/>
     </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A21" s="43"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3348,19 +3415,19 @@
       <c r="M21" s="9"/>
       <c r="N21" s="21"/>
     </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A22" s="43"/>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="79" t="s">
+      <c r="G22" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="79"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -3368,41 +3435,41 @@
       <c r="M22" s="4"/>
       <c r="N22" s="21"/>
     </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="43"/>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="102" t="s">
+      <c r="J23" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
       <c r="N23" s="21"/>
     </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="43"/>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="79"/>
+      <c r="H24" s="115"/>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -3410,14 +3477,14 @@
       <c r="M24" s="4"/>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="43"/>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6" t="s">
         <v>6</v>
@@ -3432,12 +3499,12 @@
       <c r="M25" s="5"/>
       <c r="N25" s="21"/>
     </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="A26" s="43"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="5"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -3448,19 +3515,19 @@
       <c r="M26" s="5"/>
       <c r="N26" s="21"/>
     </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" s="2" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="79"/>
+      <c r="H27" s="115"/>
       <c r="I27" s="5"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -3468,14 +3535,14 @@
       <c r="M27" s="4"/>
       <c r="N27" s="21"/>
     </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="43"/>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6" t="s">
         <v>6</v>
@@ -3490,14 +3557,14 @@
       <c r="M28" s="5"/>
       <c r="N28" s="21"/>
     </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="2" customFormat="1">
       <c r="A29" s="43"/>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
       <c r="F29" s="5"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -3508,7 +3575,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="21"/>
     </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="2" customFormat="1">
       <c r="A30" s="43"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3524,43 +3591,43 @@
       <c r="M30" s="5"/>
       <c r="N30" s="21"/>
     </row>
-    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="81" t="s">
+    <row r="31" spans="1:14" s="2" customFormat="1">
+      <c r="A31" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82" t="s">
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82" t="s">
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="77" t="s">
+      <c r="M31" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="78"/>
-    </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
+      <c r="N31" s="114"/>
+    </row>
+    <row r="32" spans="1:14" s="2" customFormat="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
       <c r="M32" s="38" t="s">
         <v>1</v>
       </c>
@@ -3568,97 +3635,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="80" t="s">
+    <row r="33" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A33" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="76"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="48"/>
     </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="80" t="s">
+    <row r="34" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A34" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="48"/>
     </row>
-    <row r="35" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="80" t="s">
+    <row r="35" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A35" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="76"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="48"/>
     </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="80" t="s">
+    <row r="36" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A36" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="76"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="48"/>
     </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="80" t="s">
+    <row r="37" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A37" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="76"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="86"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="48"/>
     </row>
-    <row r="38" spans="1:14" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A38" s="49"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3674,25 +3741,16 @@
       <c r="M38" s="4"/>
       <c r="N38" s="50"/>
     </row>
-    <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:14" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="L13:M13"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B10:C10"/>
@@ -3702,6 +3760,20 @@
     <mergeCell ref="F7:M7"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="J23:M23"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="M31:N31"/>
@@ -3711,16 +3783,11 @@
     <mergeCell ref="A31:H32"/>
     <mergeCell ref="I31:K32"/>
     <mergeCell ref="L31:L32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0.62992125984251968" header="0" footer="0.19685039370078741"/>
-  <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;8Fecha de Origen:17/08/08
 Fecha de Revisión 6_09/07/19&amp;C&amp;8Documento Impreso no controlado (solo si tiene el sello de control)
@@ -3731,17 +3798,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -3758,7 +3825,7 @@
     <col min="13" max="27" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3772,23 +3839,25 @@
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="16"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3802,7 +3871,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3818,85 +3887,99 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="139"/>
+      <c r="D5" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105" t="s">
+      <c r="E5" s="139"/>
+      <c r="F5" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105" t="s">
+      <c r="G5" s="139"/>
+      <c r="H5" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105" t="s">
+      <c r="I5" s="139"/>
+      <c r="J5" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="105"/>
+      <c r="K5" s="139"/>
       <c r="L5" s="59" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="138"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="154"/>
-    </row>
-    <row r="7" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="139"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="154"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="136" t="s">
+    <row r="6" spans="1:26" ht="45" customHeight="1">
+      <c r="A6" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="177"/>
+      <c r="D6" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="177"/>
+      <c r="F6" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="177"/>
+      <c r="H6" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="162"/>
+      <c r="J6" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="141"/>
+      <c r="L6" s="146" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="45" customHeight="1">
+      <c r="A7" s="161"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="147"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137" t="s">
+      <c r="B8" s="159"/>
+      <c r="C8" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137" t="s">
+      <c r="D8" s="159"/>
+      <c r="E8" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137" t="s">
+      <c r="F8" s="159"/>
+      <c r="G8" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="137"/>
+      <c r="H8" s="159"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="154"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J8" s="142"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="147"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="19"/>
       <c r="B9" s="5"/>
       <c r="C9" s="20"/>
@@ -3908,11 +3991,11 @@
       <c r="I9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="154"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="147"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="19"/>
       <c r="B10" s="5"/>
       <c r="C10" s="20"/>
@@ -3922,11 +4005,11 @@
       <c r="G10" s="20"/>
       <c r="H10" s="5"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
-    </row>
-    <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="148"/>
+    </row>
+    <row r="11" spans="1:26" ht="13.5" thickBot="1">
       <c r="A11" s="19"/>
       <c r="B11" s="5"/>
       <c r="C11" s="20"/>
@@ -3940,149 +4023,149 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="134" t="s">
+    <row r="12" spans="1:26" ht="26.25" customHeight="1">
+      <c r="A12" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="126" t="str">
+      <c r="B12" s="182"/>
+      <c r="C12" s="174" t="str">
         <f>'[1]Quality Alert'!$C$55</f>
         <v>NAME / SIGNATURE:                   
 (Nombre / Firma)</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126" t="s">
+      <c r="J12" s="174"/>
+      <c r="K12" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="127"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="144" t="s">
+      <c r="L12" s="175"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="128" t="s">
+      <c r="B13" s="166"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="128"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="108" t="s">
+      <c r="J13" s="176"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="129" t="s">
+      <c r="B14" s="168"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="129" t="s">
+      <c r="J14" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="74"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="149"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="108" t="s">
+      <c r="K14" s="87"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="129" t="s">
+      <c r="B15" s="168"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="129" t="s">
+      <c r="J15" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="150"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="150"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="150"/>
-      <c r="Z15" s="150"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="108" t="s">
+      <c r="K15" s="87"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="138"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="138"/>
+      <c r="Z15" s="138"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="129" t="s">
+      <c r="B16" s="168"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="129" t="s">
+      <c r="J16" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="74"/>
-      <c r="L16" s="125"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="150"/>
       <c r="M16" s="60"/>
       <c r="N16" s="10"/>
       <c r="O16" s="5"/>
@@ -4098,25 +4181,25 @@
       <c r="Y16" s="62"/>
       <c r="Z16" s="57"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108" t="s">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A17" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="129" t="s">
+      <c r="B17" s="168"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="129" t="s">
+      <c r="J17" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="125"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="150"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -4132,25 +4215,25 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A18" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="129" t="s">
+      <c r="B18" s="168"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="129" t="s">
+      <c r="J18" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="125"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="150"/>
       <c r="M18" s="5"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -4160,31 +4243,31 @@
       <c r="S18" s="63"/>
       <c r="T18" s="63"/>
       <c r="U18" s="63"/>
-      <c r="V18" s="151"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="123"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="108" t="s">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A19" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="129" t="s">
+      <c r="B19" s="168"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="129" t="s">
+      <c r="J19" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="74"/>
-      <c r="L19" s="125"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="150"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -4200,59 +4283,59 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="108" t="s">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A20" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="129" t="s">
+      <c r="B20" s="168"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="129" t="s">
+      <c r="J20" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="74"/>
-      <c r="L20" s="125"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="150"/>
       <c r="M20" s="5"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="151"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="151"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="108" t="s">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A21" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="129" t="s">
+      <c r="B21" s="168"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="129" t="s">
+      <c r="J21" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="74"/>
-      <c r="L21" s="125"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="150"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -4268,25 +4351,25 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="108" t="s">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A22" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="129" t="s">
+      <c r="B22" s="168"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="129" t="s">
+      <c r="J22" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="74"/>
-      <c r="L22" s="125"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="150"/>
       <c r="M22" s="5"/>
       <c r="N22" s="10"/>
       <c r="O22" s="63"/>
@@ -4302,21 +4385,21 @@
       <c r="Y22" s="64"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="119"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="140" t="s">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A23" s="170"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="147"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="152"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -4332,19 +4415,19 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="106"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="125"/>
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A24" s="183"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="150"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -4360,22 +4443,22 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="106"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="125"/>
+    <row r="25" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A25" s="183"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="150"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
       <c r="P25" s="65"/>
       <c r="Q25" s="65"/>
       <c r="R25" s="65"/>
@@ -4388,22 +4471,22 @@
       <c r="Y25" s="65"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="106"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="125"/>
+    <row r="26" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A26" s="183"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="150"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
       <c r="P26" s="65"/>
       <c r="Q26" s="65"/>
       <c r="R26" s="65"/>
@@ -4416,22 +4499,22 @@
       <c r="Y26" s="65"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="106"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="125"/>
+    <row r="27" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A27" s="183"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="150"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
       <c r="P27" s="65"/>
       <c r="Q27" s="65"/>
       <c r="R27" s="65"/>
@@ -4444,22 +4527,22 @@
       <c r="Y27" s="65"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="106"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="125"/>
+    <row r="28" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A28" s="183"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="150"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
       <c r="P28" s="65"/>
       <c r="Q28" s="65"/>
       <c r="R28" s="65"/>
@@ -4472,22 +4555,22 @@
       <c r="Y28" s="65"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="106"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="125"/>
+    <row r="29" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A29" s="183"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="150"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
       <c r="P29" s="65"/>
       <c r="Q29" s="65"/>
       <c r="R29" s="66"/>
@@ -4500,24 +4583,24 @@
       <c r="Y29" s="66"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="106"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="125"/>
+    <row r="30" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A30" s="183"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="150"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="135"/>
       <c r="R30" s="65"/>
       <c r="S30" s="65"/>
       <c r="T30" s="65"/>
@@ -4528,19 +4611,19 @@
       <c r="Y30" s="65"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="106"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="125"/>
+    <row r="31" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A31" s="183"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="150"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -4556,19 +4639,19 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="106"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="125"/>
+    <row r="32" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A32" s="183"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="150"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -4584,47 +4667,47 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="106"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="125"/>
+    <row r="33" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A33" s="183"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="150"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="106"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="125"/>
+    <row r="34" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A34" s="183"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="150"/>
       <c r="M34" s="5"/>
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
@@ -4640,27 +4723,27 @@
       <c r="Y34" s="56"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="106"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="125"/>
+    <row r="35" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A35" s="183"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="150"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="155"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="132"/>
+      <c r="P35" s="132"/>
+      <c r="Q35" s="132"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="156"/>
-      <c r="T35" s="156"/>
+      <c r="S35" s="131"/>
+      <c r="T35" s="131"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
@@ -4668,57 +4751,57 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="119"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="140" t="s">
+    <row r="36" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A36" s="170"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="140"/>
-      <c r="L36" s="147"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="152"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
       <c r="R36" s="5"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="5"/>
-      <c r="V36" s="157"/>
-      <c r="W36" s="157"/>
-      <c r="X36" s="157"/>
-      <c r="Y36" s="157"/>
+      <c r="V36" s="133"/>
+      <c r="W36" s="133"/>
+      <c r="X36" s="133"/>
+      <c r="Y36" s="133"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="106"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="125"/>
+    <row r="37" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A37" s="183"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="150"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="158"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="134"/>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="134"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="156"/>
-      <c r="T37" s="156"/>
+      <c r="S37" s="131"/>
+      <c r="T37" s="131"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
@@ -4726,24 +4809,24 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="106"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="125"/>
+    <row r="38" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A38" s="183"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="150"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="162"/>
-      <c r="O38" s="162"/>
-      <c r="P38" s="162"/>
-      <c r="Q38" s="162"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="130"/>
+      <c r="Q38" s="130"/>
       <c r="R38" s="5"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -4754,7 +4837,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="16.5" customHeight="1">
       <c r="A39" s="39"/>
       <c r="B39" s="42"/>
       <c r="C39" s="35"/>
@@ -4768,10 +4851,10 @@
       <c r="K39" s="35"/>
       <c r="L39" s="40"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="162"/>
-      <c r="P39" s="162"/>
-      <c r="Q39" s="162"/>
+      <c r="N39" s="130"/>
+      <c r="O39" s="130"/>
+      <c r="P39" s="130"/>
+      <c r="Q39" s="130"/>
       <c r="R39" s="5"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -4782,7 +4865,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="16.5" customHeight="1">
       <c r="A40" s="39"/>
       <c r="B40" s="42"/>
       <c r="C40" s="35"/>
@@ -4796,10 +4879,10 @@
       <c r="K40" s="35"/>
       <c r="L40" s="40"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="162"/>
-      <c r="O40" s="162"/>
-      <c r="P40" s="162"/>
-      <c r="Q40" s="162"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
+      <c r="Q40" s="130"/>
       <c r="R40" s="5"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
@@ -4810,24 +4893,24 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="106"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="125"/>
+    <row r="41" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A41" s="183"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="150"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="162"/>
-      <c r="O41" s="162"/>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="162"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="130"/>
+      <c r="Q41" s="130"/>
       <c r="R41" s="5"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -4838,7 +4921,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="16.5" customHeight="1">
       <c r="A42" s="39"/>
       <c r="B42" s="42"/>
       <c r="C42" s="35"/>
@@ -4866,7 +4949,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="16.5" customHeight="1">
       <c r="A43" s="39"/>
       <c r="B43" s="42"/>
       <c r="C43" s="35"/>
@@ -4880,13 +4963,13 @@
       <c r="K43" s="35"/>
       <c r="L43" s="36"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="83"/>
+      <c r="N43" s="118"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="118"/>
       <c r="R43" s="5"/>
-      <c r="S43" s="156"/>
-      <c r="T43" s="156"/>
+      <c r="S43" s="131"/>
+      <c r="T43" s="131"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
@@ -4894,7 +4977,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="16.5" customHeight="1">
       <c r="A44" s="39"/>
       <c r="B44" s="42"/>
       <c r="C44" s="35"/>
@@ -4908,10 +4991,10 @@
       <c r="K44" s="35"/>
       <c r="L44" s="36"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
+      <c r="N44" s="118"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
       <c r="R44" s="5"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
@@ -4922,19 +5005,19 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="106"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="125"/>
+    <row r="45" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A45" s="183"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="150"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -4950,161 +5033,161 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="106"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="160"/>
-      <c r="N46" s="160"/>
-      <c r="O46" s="160"/>
-      <c r="P46" s="160"/>
-      <c r="Q46" s="160"/>
-      <c r="R46" s="160"/>
-      <c r="S46" s="160"/>
-      <c r="T46" s="160"/>
-      <c r="U46" s="160"/>
-      <c r="V46" s="160"/>
-      <c r="W46" s="160"/>
-      <c r="X46" s="160"/>
-      <c r="Y46" s="161"/>
-      <c r="Z46" s="161"/>
-    </row>
-    <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="106"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="160"/>
-      <c r="N47" s="160"/>
-      <c r="O47" s="160"/>
-      <c r="P47" s="160"/>
-      <c r="Q47" s="160"/>
-      <c r="R47" s="160"/>
-      <c r="S47" s="160"/>
-      <c r="T47" s="160"/>
-      <c r="U47" s="160"/>
-      <c r="V47" s="160"/>
-      <c r="W47" s="160"/>
-      <c r="X47" s="160"/>
+    <row r="46" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A46" s="183"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="150"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="128"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="128"/>
+      <c r="R46" s="128"/>
+      <c r="S46" s="128"/>
+      <c r="T46" s="128"/>
+      <c r="U46" s="128"/>
+      <c r="V46" s="128"/>
+      <c r="W46" s="128"/>
+      <c r="X46" s="128"/>
+      <c r="Y46" s="129"/>
+      <c r="Z46" s="129"/>
+    </row>
+    <row r="47" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A47" s="183"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="150"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="128"/>
+      <c r="O47" s="128"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="128"/>
+      <c r="R47" s="128"/>
+      <c r="S47" s="128"/>
+      <c r="T47" s="128"/>
+      <c r="U47" s="128"/>
+      <c r="V47" s="128"/>
+      <c r="W47" s="128"/>
+      <c r="X47" s="128"/>
       <c r="Y47" s="67"/>
       <c r="Z47" s="67"/>
     </row>
-    <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="106"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="83"/>
-      <c r="R48" s="83"/>
-      <c r="S48" s="83"/>
-      <c r="T48" s="83"/>
-      <c r="U48" s="83"/>
-      <c r="V48" s="83"/>
-      <c r="W48" s="83"/>
+    <row r="48" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A48" s="183"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="150"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="118"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
+      <c r="R48" s="118"/>
+      <c r="S48" s="118"/>
+      <c r="T48" s="118"/>
+      <c r="U48" s="118"/>
+      <c r="V48" s="118"/>
+      <c r="W48" s="118"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="119"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="140" t="s">
+    <row r="49" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A49" s="170"/>
+      <c r="B49" s="171"/>
+      <c r="C49" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="141"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
-      <c r="S49" s="83"/>
-      <c r="T49" s="83"/>
-      <c r="U49" s="83"/>
-      <c r="V49" s="83"/>
-      <c r="W49" s="83"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="152"/>
+      <c r="M49" s="118"/>
+      <c r="N49" s="118"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="118"/>
+      <c r="R49" s="118"/>
+      <c r="S49" s="118"/>
+      <c r="T49" s="118"/>
+      <c r="U49" s="118"/>
+      <c r="V49" s="118"/>
+      <c r="W49" s="118"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="110"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="83"/>
-      <c r="T50" s="83"/>
-      <c r="U50" s="83"/>
-      <c r="V50" s="83"/>
-      <c r="W50" s="83"/>
+    <row r="50" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A50" s="124"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="118"/>
+      <c r="N50" s="118"/>
+      <c r="O50" s="118"/>
+      <c r="P50" s="118"/>
+      <c r="Q50" s="118"/>
+      <c r="R50" s="118"/>
+      <c r="S50" s="118"/>
+      <c r="T50" s="118"/>
+      <c r="U50" s="118"/>
+      <c r="V50" s="118"/>
+      <c r="W50" s="118"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="110"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="76"/>
+    <row r="51" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A51" s="124"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="86"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -5120,75 +5203,75 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="110"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="74"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="83"/>
-      <c r="R52" s="83"/>
-      <c r="S52" s="83"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="83"/>
-      <c r="V52" s="83"/>
-      <c r="W52" s="83"/>
+    <row r="52" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A52" s="124"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="118"/>
+      <c r="N52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="118"/>
+      <c r="U52" s="118"/>
+      <c r="V52" s="118"/>
+      <c r="W52" s="118"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="110"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="112"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="83"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="83"/>
-      <c r="V53" s="83"/>
-      <c r="W53" s="83"/>
+    <row r="53" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A53" s="124"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="118"/>
+      <c r="N53" s="118"/>
+      <c r="O53" s="118"/>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="118"/>
+      <c r="R53" s="118"/>
+      <c r="S53" s="118"/>
+      <c r="T53" s="118"/>
+      <c r="U53" s="118"/>
+      <c r="V53" s="118"/>
+      <c r="W53" s="118"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="110"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="112"/>
-      <c r="K54" s="74"/>
-      <c r="L54" s="76"/>
+    <row r="54" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A54" s="124"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="127"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="86"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -5204,75 +5287,75 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="110"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="112"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="76"/>
-    </row>
-    <row r="56" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="110"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="76"/>
-    </row>
-    <row r="57" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="110"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="76"/>
-    </row>
-    <row r="58" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="110"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="76"/>
-    </row>
-    <row r="59" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="110"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="76"/>
+    <row r="55" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A55" s="124"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="86"/>
+    </row>
+    <row r="56" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A56" s="124"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="86"/>
+    </row>
+    <row r="57" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A57" s="124"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="86"/>
+    </row>
+    <row r="58" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A58" s="124"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="86"/>
+    </row>
+    <row r="59" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A59" s="124"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="86"/>
       <c r="M59" s="5"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
@@ -5282,25 +5365,25 @@
       <c r="S59" s="63"/>
       <c r="T59" s="63"/>
       <c r="U59" s="63"/>
-      <c r="V59" s="151"/>
-      <c r="W59" s="151"/>
-      <c r="X59" s="151"/>
-      <c r="Y59" s="151"/>
+      <c r="V59" s="123"/>
+      <c r="W59" s="123"/>
+      <c r="X59" s="123"/>
+      <c r="Y59" s="123"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="110"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="111"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="76"/>
+    <row r="60" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A60" s="124"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="86"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
@@ -5316,47 +5399,47 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="118"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="121"/>
-      <c r="J61" s="121"/>
-      <c r="K61" s="148"/>
-      <c r="L61" s="148"/>
+    <row r="61" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A61" s="188"/>
+      <c r="B61" s="188"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="149"/>
+      <c r="G61" s="149"/>
+      <c r="H61" s="149"/>
+      <c r="I61" s="189"/>
+      <c r="J61" s="189"/>
+      <c r="K61" s="149"/>
+      <c r="L61" s="149"/>
       <c r="M61" s="5"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="11"/>
-      <c r="R61" s="151"/>
-      <c r="S61" s="151"/>
-      <c r="T61" s="151"/>
-      <c r="U61" s="151"/>
-      <c r="V61" s="151"/>
-      <c r="W61" s="151"/>
-      <c r="X61" s="151"/>
-      <c r="Y61" s="151"/>
+      <c r="R61" s="123"/>
+      <c r="S61" s="123"/>
+      <c r="T61" s="123"/>
+      <c r="U61" s="123"/>
+      <c r="V61" s="123"/>
+      <c r="W61" s="123"/>
+      <c r="X61" s="123"/>
+      <c r="Y61" s="123"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A62" s="117"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="83"/>
-      <c r="L62" s="83"/>
+    <row r="62" spans="1:26">
+      <c r="A62" s="187"/>
+      <c r="B62" s="187"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="184"/>
+      <c r="J62" s="184"/>
+      <c r="K62" s="118"/>
+      <c r="L62" s="118"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -5372,21 +5455,21 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="117"/>
-      <c r="B63" s="117"/>
-      <c r="C63" s="146" t="s">
+    <row r="63" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A63" s="187"/>
+      <c r="B63" s="187"/>
+      <c r="C63" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="146"/>
-      <c r="E63" s="146"/>
-      <c r="F63" s="146"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="114"/>
-      <c r="K63" s="83"/>
-      <c r="L63" s="83"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="155"/>
+      <c r="I63" s="184"/>
+      <c r="J63" s="184"/>
+      <c r="K63" s="118"/>
+      <c r="L63" s="118"/>
       <c r="M63" s="5"/>
       <c r="N63" s="10"/>
       <c r="O63" s="63"/>
@@ -5402,19 +5485,19 @@
       <c r="Y63" s="64"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A64" s="117"/>
-      <c r="B64" s="117"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="114"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
+    <row r="64" spans="1:26">
+      <c r="A64" s="187"/>
+      <c r="B64" s="187"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="118"/>
+      <c r="G64" s="118"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="184"/>
+      <c r="J64" s="184"/>
+      <c r="K64" s="118"/>
+      <c r="L64" s="118"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
@@ -5430,35 +5513,35 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="116"/>
-      <c r="B65" s="117"/>
+    <row r="65" spans="1:12">
+      <c r="A65" s="186"/>
+      <c r="B65" s="187"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="115"/>
+      <c r="I65" s="185"/>
+      <c r="J65" s="185"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="116"/>
-      <c r="B66" s="117"/>
+    <row r="66" spans="1:12">
+      <c r="A66" s="186"/>
+      <c r="B66" s="187"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="115"/>
+      <c r="I66" s="185"/>
+      <c r="J66" s="185"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5474,52 +5557,186 @@
     </row>
   </sheetData>
   <mergeCells count="250">
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="R61:Y61"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="M50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="U46:W47"/>
-    <mergeCell ref="X46:X47"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="M49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="N38:Q41"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="M46:T47"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="N33:Y33"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="M13:Z13"/>
     <mergeCell ref="M14:Z14"/>
     <mergeCell ref="M15:Z15"/>
@@ -5544,189 +5761,55 @@
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="N33:Y33"/>
+    <mergeCell ref="U46:W47"/>
+    <mergeCell ref="X46:X47"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="N38:Q41"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="M46:T47"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="R61:Y61"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="M50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="3.937007874015748E-2" bottom="0.70866141732283472" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;8Fecha de Origen:17/08/08
 Fecha de Revisión 6_09/07/19&amp;C&amp;8Documento impreso no controlado (solo si tiene el sello de control)
@@ -5737,14 +5820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="8" width="11.42578125" style="71"/>
     <col min="9" max="9" width="13.140625" style="71" customWidth="1"/>
@@ -5752,7 +5835,7 @@
     <col min="11" max="16384" width="11.42578125" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="69"/>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -5764,7 +5847,7 @@
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -5776,7 +5859,7 @@
       <c r="I2" s="69"/>
       <c r="J2" s="69"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -5788,71 +5871,71 @@
       <c r="I3" s="69"/>
       <c r="J3" s="69"/>
     </row>
-    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+    <row r="4" spans="1:10" ht="23.25">
+      <c r="A4" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.25">
       <c r="A5" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173" t="s">
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="172" t="s">
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="172"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="199"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="73">
         <v>6</v>
       </c>
-      <c r="B6" s="163">
+      <c r="B6" s="190">
         <v>43655</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166" t="s">
+      <c r="C6" s="191"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="169" t="s">
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="170"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="197"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="73"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5874,7 +5957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
@@ -5884,7 +5967,7 @@
       <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="24" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
@@ -5893,16 +5976,16 @@
     <col min="5" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="176" t="s">
+    <row r="2" spans="2:6" s="22" customFormat="1" ht="15">
+      <c r="B2" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+    </row>
+    <row r="3" spans="2:6" ht="15">
       <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
@@ -5912,12 +5995,12 @@
       <c r="D3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="177"/>
-    </row>
-    <row r="4" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="202"/>
+    </row>
+    <row r="4" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B4" s="25">
         <v>1</v>
       </c>
@@ -5927,12 +6010,12 @@
       <c r="D4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="178" t="s">
+      <c r="E4" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="179"/>
-    </row>
-    <row r="5" spans="2:6" s="27" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="204"/>
+    </row>
+    <row r="5" spans="2:6" s="27" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="28">
         <v>2</v>
       </c>
@@ -5942,126 +6025,116 @@
       <c r="D5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="178" t="s">
+      <c r="E5" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="179"/>
-    </row>
-    <row r="6" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="204"/>
+    </row>
+    <row r="6" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B6" s="31"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="181"/>
-    </row>
-    <row r="7" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="205"/>
+      <c r="F6" s="206"/>
+    </row>
+    <row r="7" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="175"/>
-    </row>
-    <row r="8" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="207"/>
+      <c r="F7" s="208"/>
+    </row>
+    <row r="8" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="175"/>
-    </row>
-    <row r="9" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="207"/>
+      <c r="F8" s="208"/>
+    </row>
+    <row r="9" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="175"/>
-    </row>
-    <row r="10" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="207"/>
+      <c r="F9" s="208"/>
+    </row>
+    <row r="10" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
-    </row>
-    <row r="11" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="207"/>
+      <c r="F10" s="208"/>
+    </row>
+    <row r="11" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="175"/>
-    </row>
-    <row r="12" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="207"/>
+      <c r="F11" s="208"/>
+    </row>
+    <row r="12" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="175"/>
-    </row>
-    <row r="13" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="207"/>
+      <c r="F12" s="208"/>
+    </row>
+    <row r="13" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="175"/>
-    </row>
-    <row r="14" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="207"/>
+      <c r="F13" s="208"/>
+    </row>
+    <row r="14" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="175"/>
-    </row>
-    <row r="15" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="207"/>
+      <c r="F14" s="208"/>
+    </row>
+    <row r="15" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B15" s="32"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="175"/>
-    </row>
-    <row r="16" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="207"/>
+      <c r="F15" s="208"/>
+    </row>
+    <row r="16" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="175"/>
-    </row>
-    <row r="17" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="207"/>
+      <c r="F16" s="208"/>
+    </row>
+    <row r="17" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="175"/>
-    </row>
-    <row r="18" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="207"/>
+      <c r="F17" s="208"/>
+    </row>
+    <row r="18" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="175"/>
-    </row>
-    <row r="19" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="207"/>
+      <c r="F18" s="208"/>
+    </row>
+    <row r="19" spans="2:6" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="175"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
+    </row>
+    <row r="21" spans="2:6" ht="15">
       <c r="B21" s="34" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
@@ -6070,6 +6143,16 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
